--- a/Income/NXPI_inc.xlsx
+++ b/Income/NXPI_inc.xlsx
@@ -2823,16 +2823,16 @@
         <v>0.2413</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.2108</v>
+        <v>0.2118</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.2241</v>
+        <v>0.2251</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.2226</v>
+        <v>0.2235</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.1983</v>
+        <v>0.1992</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0.187</v>
@@ -4432,16 +4432,16 @@
         <v>0.2779</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.3143</v>
+        <v>0.2708</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.3273</v>
+        <v>0.2838</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.3415</v>
+        <v>0.3</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.344</v>
+        <v>0.3028</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.3003</v>
@@ -4559,16 +4559,16 @@
         <v>0.3014</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.276</v>
+        <v>0.2769</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.2948</v>
+        <v>0.2958</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.2932</v>
+        <v>0.2941</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.2664</v>
+        <v>0.2673</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0.255</v>
